--- a/analysis/pre_gemini_data/participant 290/hard.xlsx
+++ b/analysis/pre_gemini_data/participant 290/hard.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BL11"/>
+  <dimension ref="A1:BL9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,322 +422,318 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr"/>
+      <c r="B1" t="inlineStr">
         <is>
           <t>arg</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>arg2</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>arg3</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>arg4</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>arg5</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>arg6</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>assign</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>assign2</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>assign3</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>assign4</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>assign5</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>assign6</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>assign7</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>assign8</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>assign9</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>code</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>condbody</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>condbody2</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>condstae</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>condstae2</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>condstat5</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>condstate3</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>condstate4</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>gemini</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>index</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>literal1</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>literal2</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>loopbody</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>loopstae</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>methodca11</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>methodcall</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>methodcall10</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>methodcall2</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AI1" t="inlineStr">
         <is>
           <t>methodcall4</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AJ1" t="inlineStr">
         <is>
           <t>methodcall5</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AK1" t="inlineStr">
         <is>
           <t>methodcall6</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AL1" t="inlineStr">
         <is>
           <t>methodcall8</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AM1" t="inlineStr">
         <is>
           <t>methodcall9</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AN1" t="inlineStr">
         <is>
           <t>methoddec</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AO1" t="inlineStr">
         <is>
           <t>param</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>summary</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>var</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>var10</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AS1" t="inlineStr">
         <is>
           <t>var11</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AT1" t="inlineStr">
         <is>
           <t>var12</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AU1" t="inlineStr">
         <is>
           <t>var13</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AV1" t="inlineStr">
         <is>
           <t>var14</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AW1" t="inlineStr">
         <is>
           <t>var15</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AX1" t="inlineStr">
         <is>
           <t>var16</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AY1" t="inlineStr">
         <is>
           <t>var17</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="AZ1" t="inlineStr">
         <is>
           <t>var18</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BA1" t="inlineStr">
         <is>
           <t>var19</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BB1" t="inlineStr">
         <is>
           <t>var2</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BC1" t="inlineStr">
         <is>
           <t>var20</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BD1" t="inlineStr">
         <is>
           <t>var21</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BE1" t="inlineStr">
         <is>
           <t>var22</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BF1" t="inlineStr">
         <is>
           <t>var23</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BG1" t="inlineStr">
         <is>
           <t>var3</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="BH1" t="inlineStr">
         <is>
           <t>var4</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="BI1" t="inlineStr">
         <is>
           <t>var5</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="BJ1" t="inlineStr">
         <is>
           <t>var7</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="BK1" t="inlineStr">
         <is>
           <t>var8</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="BL1" t="inlineStr">
         <is>
           <t>var9</t>
         </is>
@@ -844,17 +828,15 @@
       <c r="F3" t="n">
         <v>6</v>
       </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K3" t="n">
         <v>6</v>
@@ -863,7 +845,7 @@
         <v>8</v>
       </c>
       <c r="M3" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N3" t="n">
         <v>18</v>
@@ -875,34 +857,34 @@
         <v>13</v>
       </c>
       <c r="Q3" t="n">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="R3" t="n">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="S3" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="T3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U3" t="n">
         <v>13</v>
       </c>
       <c r="V3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="W3" t="n">
         <v>8</v>
       </c>
       <c r="X3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y3" t="n">
         <v>41</v>
       </c>
       <c r="Z3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA3" t="n">
         <v>4</v>
@@ -911,13 +893,13 @@
         <v>2</v>
       </c>
       <c r="AC3" t="n">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="AD3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF3" t="n">
         <v>3</v>
@@ -925,9 +907,7 @@
       <c r="AG3" t="n">
         <v>4</v>
       </c>
-      <c r="AH3" t="n">
-        <v>0</v>
-      </c>
+      <c r="AH3" t="inlineStr"/>
       <c r="AI3" t="n">
         <v>6</v>
       </c>
@@ -935,7 +915,7 @@
         <v>8</v>
       </c>
       <c r="AK3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL3" t="n">
         <v>11</v>
@@ -944,13 +924,13 @@
         <v>8</v>
       </c>
       <c r="AN3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP3" t="n">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="AQ3" t="n">
         <v>10</v>
@@ -959,7 +939,7 @@
         <v>7</v>
       </c>
       <c r="AS3" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AT3" t="n">
         <v>0</v>
@@ -979,23 +959,21 @@
       <c r="AY3" t="n">
         <v>3</v>
       </c>
-      <c r="AZ3" t="n">
-        <v>0</v>
-      </c>
+      <c r="AZ3" t="inlineStr"/>
       <c r="BA3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB3" t="n">
         <v>1</v>
       </c>
       <c r="BC3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BD3" t="n">
         <v>0</v>
       </c>
       <c r="BE3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BF3" t="inlineStr"/>
       <c r="BG3" t="n">
@@ -1034,17 +1012,15 @@
       <c r="F4" t="n">
         <v>11</v>
       </c>
-      <c r="G4" t="n">
-        <v>2</v>
-      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K4" t="n">
         <v>13</v>
@@ -1053,7 +1029,7 @@
         <v>28</v>
       </c>
       <c r="M4" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N4" t="n">
         <v>33</v>
@@ -1065,34 +1041,34 @@
         <v>28</v>
       </c>
       <c r="Q4" t="n">
-        <v>369</v>
+        <v>320</v>
       </c>
       <c r="R4" t="n">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="S4" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="T4" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U4" t="n">
         <v>19</v>
       </c>
       <c r="V4" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W4" t="n">
         <v>15</v>
       </c>
       <c r="X4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Y4" t="n">
         <v>348</v>
       </c>
       <c r="Z4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA4" t="n">
         <v>5</v>
@@ -1101,13 +1077,13 @@
         <v>4</v>
       </c>
       <c r="AC4" t="n">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="AD4" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AE4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF4" t="n">
         <v>5</v>
@@ -1115,9 +1091,7 @@
       <c r="AG4" t="n">
         <v>5</v>
       </c>
-      <c r="AH4" t="n">
-        <v>1</v>
-      </c>
+      <c r="AH4" t="inlineStr"/>
       <c r="AI4" t="n">
         <v>8</v>
       </c>
@@ -1125,7 +1099,7 @@
         <v>12</v>
       </c>
       <c r="AK4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL4" t="n">
         <v>14</v>
@@ -1134,13 +1108,13 @@
         <v>12</v>
       </c>
       <c r="AN4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO4" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AP4" t="n">
-        <v>422</v>
+        <v>178</v>
       </c>
       <c r="AQ4" t="n">
         <v>13</v>
@@ -1149,7 +1123,7 @@
         <v>10</v>
       </c>
       <c r="AS4" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AT4" t="n">
         <v>1</v>
@@ -1169,23 +1143,21 @@
       <c r="AY4" t="n">
         <v>5</v>
       </c>
-      <c r="AZ4" t="n">
-        <v>1</v>
-      </c>
+      <c r="AZ4" t="inlineStr"/>
       <c r="BA4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB4" t="n">
         <v>2</v>
       </c>
       <c r="BC4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BD4" t="n">
         <v>1</v>
       </c>
       <c r="BE4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BF4" t="inlineStr"/>
       <c r="BG4" t="n">
@@ -1224,17 +1196,15 @@
       <c r="F5" t="n">
         <v>4185.11</v>
       </c>
-      <c r="G5" t="n">
-        <v>2319.2</v>
-      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>4270.65</v>
+        <v>1300.65</v>
       </c>
       <c r="I5" t="n">
-        <v>5987.28</v>
+        <v>3201.47</v>
       </c>
       <c r="J5" t="n">
-        <v>3685.15</v>
+        <v>2100.08</v>
       </c>
       <c r="K5" t="n">
         <v>6636.26</v>
@@ -1243,7 +1213,7 @@
         <v>11329.68</v>
       </c>
       <c r="M5" t="n">
-        <v>10379.36</v>
+        <v>9778.860000000001</v>
       </c>
       <c r="N5" t="n">
         <v>10938.09</v>
@@ -1255,34 +1225,34 @@
         <v>9969.709999999999</v>
       </c>
       <c r="Q5" t="n">
-        <v>110349.08</v>
+        <v>91649.85000000001</v>
       </c>
       <c r="R5" t="n">
-        <v>69820.61</v>
+        <v>63165.8</v>
       </c>
       <c r="S5" t="n">
-        <v>12326</v>
+        <v>5702.55</v>
       </c>
       <c r="T5" t="n">
-        <v>12780.27</v>
+        <v>12013.28</v>
       </c>
       <c r="U5" t="n">
         <v>4818.78</v>
       </c>
       <c r="V5" t="n">
-        <v>15756.38</v>
+        <v>15522.96</v>
       </c>
       <c r="W5" t="n">
         <v>5719.39</v>
       </c>
       <c r="X5" t="n">
-        <v>9920.940000000001</v>
+        <v>9787.450000000001</v>
       </c>
       <c r="Y5" t="n">
         <v>83896.11</v>
       </c>
       <c r="Z5" t="n">
-        <v>850.6</v>
+        <v>600.29</v>
       </c>
       <c r="AA5" t="n">
         <v>2450.99</v>
@@ -1291,13 +1261,13 @@
         <v>900.72</v>
       </c>
       <c r="AC5" t="n">
-        <v>88049.25</v>
+        <v>75405.07000000001</v>
       </c>
       <c r="AD5" t="n">
-        <v>9747.559999999999</v>
+        <v>9647.530000000001</v>
       </c>
       <c r="AE5" t="n">
-        <v>667.5</v>
+        <v>567.46</v>
       </c>
       <c r="AF5" t="n">
         <v>1950.76</v>
@@ -1305,9 +1275,7 @@
       <c r="AG5" t="n">
         <v>1666.53</v>
       </c>
-      <c r="AH5" t="n">
-        <v>1585.08</v>
-      </c>
+      <c r="AH5" t="inlineStr"/>
       <c r="AI5" t="n">
         <v>5969.25</v>
       </c>
@@ -1315,7 +1283,7 @@
         <v>3926.46</v>
       </c>
       <c r="AK5" t="n">
-        <v>7686.4</v>
+        <v>7452.98</v>
       </c>
       <c r="AL5" t="n">
         <v>6436.28</v>
@@ -1324,13 +1292,13 @@
         <v>3084.49</v>
       </c>
       <c r="AN5" t="n">
-        <v>3810.35</v>
+        <v>3126.29</v>
       </c>
       <c r="AO5" t="n">
-        <v>8994.889999999999</v>
+        <v>8844.719999999999</v>
       </c>
       <c r="AP5" t="n">
-        <v>131158.79</v>
+        <v>65137.8</v>
       </c>
       <c r="AQ5" t="n">
         <v>4619.52</v>
@@ -1339,7 +1307,7 @@
         <v>3159.87</v>
       </c>
       <c r="AS5" t="n">
-        <v>8928.959999999999</v>
+        <v>8328.469999999999</v>
       </c>
       <c r="AT5" t="n">
         <v>166.7</v>
@@ -1359,23 +1327,21 @@
       <c r="AY5" t="n">
         <v>1733.24</v>
       </c>
-      <c r="AZ5" t="n">
-        <v>1585.08</v>
-      </c>
+      <c r="AZ5" t="inlineStr"/>
       <c r="BA5" t="n">
-        <v>1634.19</v>
+        <v>1450.81</v>
       </c>
       <c r="BB5" t="n">
         <v>567.46</v>
       </c>
       <c r="BC5" t="n">
-        <v>3369.39</v>
+        <v>766.96</v>
       </c>
       <c r="BD5" t="n">
         <v>450.2</v>
       </c>
       <c r="BE5" t="n">
-        <v>3420.05</v>
+        <v>700.36</v>
       </c>
       <c r="BF5" t="inlineStr"/>
       <c r="BG5" t="n">
@@ -1402,187 +1368,181 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.17</v>
+        <v>0.24</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="F6" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.64</v>
-      </c>
+        <v>1.69</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>1.17</v>
+        <v>0.53</v>
       </c>
       <c r="I6" t="n">
-        <v>1.65</v>
+        <v>1.29</v>
       </c>
       <c r="J6" t="n">
-        <v>1.01</v>
+        <v>0.85</v>
       </c>
       <c r="K6" t="n">
-        <v>1.83</v>
+        <v>2.68</v>
       </c>
       <c r="L6" t="n">
-        <v>3.12</v>
+        <v>4.58</v>
       </c>
       <c r="M6" t="n">
-        <v>2.85</v>
+        <v>3.95</v>
       </c>
       <c r="N6" t="n">
-        <v>3.01</v>
+        <v>4.42</v>
       </c>
       <c r="O6" t="n">
-        <v>0.95</v>
+        <v>1.39</v>
       </c>
       <c r="P6" t="n">
-        <v>2.74</v>
+        <v>4.03</v>
       </c>
       <c r="Q6" t="n">
-        <v>30.09</v>
+        <v>36.55</v>
       </c>
       <c r="R6" t="n">
-        <v>19.2</v>
+        <v>25.51</v>
       </c>
       <c r="S6" t="n">
-        <v>3.39</v>
+        <v>2.3</v>
       </c>
       <c r="T6" t="n">
-        <v>3.51</v>
+        <v>4.85</v>
       </c>
       <c r="U6" t="n">
-        <v>1.33</v>
+        <v>1.95</v>
       </c>
       <c r="V6" t="n">
-        <v>4.33</v>
+        <v>6.27</v>
       </c>
       <c r="W6" t="n">
-        <v>1.57</v>
+        <v>2.31</v>
       </c>
       <c r="X6" t="n">
-        <v>2.73</v>
+        <v>3.95</v>
       </c>
       <c r="Y6" t="n">
         <v>29.89</v>
       </c>
       <c r="Z6" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>30.45</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AE6" t="n">
         <v>0.23</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AF6" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AG6" t="n">
         <v>0.67</v>
       </c>
-      <c r="AB6" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>24.22</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="AE6" t="n">
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>26.31</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AZ6" t="inlineStr"/>
+      <c r="BA6" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="BD6" t="n">
         <v>0.18</v>
       </c>
-      <c r="AF6" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>25.07</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>0.12</v>
-      </c>
       <c r="BE6" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.28</v>
       </c>
       <c r="BF6" t="inlineStr"/>
       <c r="BG6" t="n">
-        <v>0.82</v>
+        <v>1.21</v>
       </c>
       <c r="BH6" t="n">
-        <v>1.1</v>
+        <v>1.61</v>
       </c>
       <c r="BI6" t="n">
-        <v>0.21</v>
+        <v>0.31</v>
       </c>
       <c r="BJ6" t="inlineStr"/>
       <c r="BK6" t="n">
-        <v>0.36</v>
+        <v>0.53</v>
       </c>
       <c r="BL6" t="n">
-        <v>1.09</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="7">
@@ -1604,17 +1564,15 @@
       <c r="F7" t="n">
         <v>380.46</v>
       </c>
-      <c r="G7" t="n">
-        <v>1159.6</v>
-      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>533.83</v>
+        <v>325.16</v>
       </c>
       <c r="I7" t="n">
-        <v>427.66</v>
+        <v>355.72</v>
       </c>
       <c r="J7" t="n">
-        <v>460.64</v>
+        <v>300.01</v>
       </c>
       <c r="K7" t="n">
         <v>510.48</v>
@@ -1623,7 +1581,7 @@
         <v>404.63</v>
       </c>
       <c r="M7" t="n">
-        <v>399.21</v>
+        <v>407.45</v>
       </c>
       <c r="N7" t="n">
         <v>331.46</v>
@@ -1635,34 +1593,34 @@
         <v>356.06</v>
       </c>
       <c r="Q7" t="n">
-        <v>299.05</v>
+        <v>286.41</v>
       </c>
       <c r="R7" t="n">
-        <v>324.75</v>
+        <v>311.16</v>
       </c>
       <c r="S7" t="n">
-        <v>440.21</v>
+        <v>316.81</v>
       </c>
       <c r="T7" t="n">
-        <v>399.38</v>
+        <v>387.53</v>
       </c>
       <c r="U7" t="n">
         <v>253.62</v>
       </c>
       <c r="V7" t="n">
-        <v>384.3</v>
+        <v>388.07</v>
       </c>
       <c r="W7" t="n">
         <v>381.29</v>
       </c>
       <c r="X7" t="n">
-        <v>342.1</v>
+        <v>349.55</v>
       </c>
       <c r="Y7" t="n">
         <v>241.08</v>
       </c>
       <c r="Z7" t="n">
-        <v>283.53</v>
+        <v>300.15</v>
       </c>
       <c r="AA7" t="n">
         <v>490.2</v>
@@ -1671,13 +1629,13 @@
         <v>225.18</v>
       </c>
       <c r="AC7" t="n">
-        <v>319.02</v>
+        <v>302.83</v>
       </c>
       <c r="AD7" t="n">
-        <v>286.69</v>
+        <v>292.35</v>
       </c>
       <c r="AE7" t="n">
-        <v>222.5</v>
+        <v>283.73</v>
       </c>
       <c r="AF7" t="n">
         <v>390.15</v>
@@ -1685,9 +1643,7 @@
       <c r="AG7" t="n">
         <v>333.31</v>
       </c>
-      <c r="AH7" t="n">
-        <v>1585.08</v>
-      </c>
+      <c r="AH7" t="inlineStr"/>
       <c r="AI7" t="n">
         <v>746.16</v>
       </c>
@@ -1695,7 +1651,7 @@
         <v>327.21</v>
       </c>
       <c r="AK7" t="n">
-        <v>427.02</v>
+        <v>438.41</v>
       </c>
       <c r="AL7" t="n">
         <v>459.73</v>
@@ -1704,13 +1660,13 @@
         <v>257.04</v>
       </c>
       <c r="AN7" t="n">
-        <v>346.4</v>
+        <v>312.63</v>
       </c>
       <c r="AO7" t="n">
-        <v>290.16</v>
+        <v>294.82</v>
       </c>
       <c r="AP7" t="n">
-        <v>310.8</v>
+        <v>365.94</v>
       </c>
       <c r="AQ7" t="n">
         <v>355.35</v>
@@ -1719,7 +1675,7 @@
         <v>315.99</v>
       </c>
       <c r="AS7" t="n">
-        <v>446.45</v>
+        <v>462.69</v>
       </c>
       <c r="AT7" t="n">
         <v>166.7</v>
@@ -1739,23 +1695,21 @@
       <c r="AY7" t="n">
         <v>346.65</v>
       </c>
-      <c r="AZ7" t="n">
-        <v>1585.08</v>
-      </c>
+      <c r="AZ7" t="inlineStr"/>
       <c r="BA7" t="n">
-        <v>326.84</v>
+        <v>362.7</v>
       </c>
       <c r="BB7" t="n">
         <v>283.73</v>
       </c>
       <c r="BC7" t="n">
-        <v>561.5599999999999</v>
+        <v>383.48</v>
       </c>
       <c r="BD7" t="n">
         <v>450.2</v>
       </c>
       <c r="BE7" t="n">
-        <v>684.01</v>
+        <v>350.18</v>
       </c>
       <c r="BF7" t="inlineStr"/>
       <c r="BG7" t="n">
@@ -1794,9 +1748,7 @@
       <c r="F8" t="n">
         <v>83.38</v>
       </c>
-      <c r="G8" t="n">
-        <v>1585.08</v>
-      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
         <v>450.2</v>
       </c>
@@ -1875,9 +1827,7 @@
       <c r="AG8" t="n">
         <v>616.96</v>
       </c>
-      <c r="AH8" t="n">
-        <v>1585.08</v>
-      </c>
+      <c r="AH8" t="inlineStr"/>
       <c r="AI8" t="n">
         <v>416.84</v>
       </c>
@@ -1929,9 +1879,7 @@
       <c r="AY8" t="n">
         <v>166.02</v>
       </c>
-      <c r="AZ8" t="n">
-        <v>1585.08</v>
-      </c>
+      <c r="AZ8" t="inlineStr"/>
       <c r="BA8" t="n">
         <v>567.09</v>
       </c>
@@ -2031,138 +1979,6 @@
       <c r="BK9" t="inlineStr"/>
       <c r="BL9" t="inlineStr"/>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr"/>
-      <c r="AH10" t="inlineStr"/>
-      <c r="AI10" t="inlineStr"/>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
-      <c r="AL10" t="inlineStr"/>
-      <c r="AM10" t="inlineStr"/>
-      <c r="AN10" t="inlineStr"/>
-      <c r="AO10" t="inlineStr"/>
-      <c r="AP10" t="inlineStr"/>
-      <c r="AQ10" t="inlineStr"/>
-      <c r="AR10" t="inlineStr"/>
-      <c r="AS10" t="inlineStr"/>
-      <c r="AT10" t="inlineStr"/>
-      <c r="AU10" t="inlineStr"/>
-      <c r="AV10" t="inlineStr"/>
-      <c r="AW10" t="inlineStr"/>
-      <c r="AX10" t="inlineStr"/>
-      <c r="AY10" t="inlineStr"/>
-      <c r="AZ10" t="inlineStr"/>
-      <c r="BA10" t="inlineStr"/>
-      <c r="BB10" t="inlineStr"/>
-      <c r="BC10" t="inlineStr"/>
-      <c r="BD10" t="inlineStr"/>
-      <c r="BE10" t="inlineStr"/>
-      <c r="BF10" t="inlineStr"/>
-      <c r="BG10" t="inlineStr"/>
-      <c r="BH10" t="inlineStr"/>
-      <c r="BI10" t="inlineStr"/>
-      <c r="BJ10" t="inlineStr"/>
-      <c r="BK10" t="inlineStr"/>
-      <c r="BL10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="inlineStr"/>
-      <c r="AH11" t="inlineStr"/>
-      <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr"/>
-      <c r="AL11" t="inlineStr"/>
-      <c r="AM11" t="inlineStr"/>
-      <c r="AN11" t="inlineStr"/>
-      <c r="AO11" t="inlineStr"/>
-      <c r="AP11" t="inlineStr"/>
-      <c r="AQ11" t="inlineStr"/>
-      <c r="AR11" t="inlineStr"/>
-      <c r="AS11" t="inlineStr"/>
-      <c r="AT11" t="inlineStr"/>
-      <c r="AU11" t="inlineStr"/>
-      <c r="AV11" t="inlineStr"/>
-      <c r="AW11" t="inlineStr"/>
-      <c r="AX11" t="inlineStr"/>
-      <c r="AY11" t="inlineStr"/>
-      <c r="AZ11" t="inlineStr"/>
-      <c r="BA11" t="inlineStr"/>
-      <c r="BB11" t="inlineStr"/>
-      <c r="BC11" t="inlineStr"/>
-      <c r="BD11" t="inlineStr"/>
-      <c r="BE11" t="inlineStr"/>
-      <c r="BF11" t="inlineStr"/>
-      <c r="BG11" t="inlineStr"/>
-      <c r="BH11" t="inlineStr"/>
-      <c r="BI11" t="inlineStr"/>
-      <c r="BJ11" t="inlineStr"/>
-      <c r="BK11" t="inlineStr"/>
-      <c r="BL11" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
